--- a/excel_data.xlsx
+++ b/excel_data.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\shopstar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CF3CE-9A25-4C08-8162-1EAD7F4E238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5715" yWindow="1545" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -369,20 +419,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A25:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D136" sqref="D135:D136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col width="65.85546875" customWidth="1" min="1" max="1"/>
+    <col width="20.7109375" customWidth="1" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" min="3" max="3"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Televisor Samsung Crystal 4K 60" UN60AU700...</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>S/. 2,499.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>S/2,299.00
+-28%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>S/. 3,199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG LED 43'' FHD Smart Tv UN...</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>S/. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>S/. 1,999.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S/1,899.00
+-36%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S/. 2,999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Televisor LG UHD 4K ThinQ AI 50" 50UP7750 ...</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>S/. 2,799.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>S/2,599.00
+-36%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S/. 4,099.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 50'' UHD 4K Smart Tv 50UP...</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 65'' UHD 4K Smart Tv 65UP...</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>S/. 2,899.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Televisor LG UHD 4K ThinQ AI 43" 43UP7700 ...</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>S/. 1,799.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Televisor HISENSE LED 32'' HD Smart Tv 32A...</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>S/. 749.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Televisor Samsung 50" AU7000 UHD 4K Smart ...</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>S/. 1,899.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>S/1,799.00
+-28%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>S/. 2,499.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Televisor Samsung AU7000 58" UHD 4K Smart ...</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>S/. 2,399.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>S/2,199.00
+-24%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>S/. 2,899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>S/. 3,449.00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 55'' UHD 4K Smart Tv 55UP...</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>S/2,049.00
+-24%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>S/. 2,699.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Televisor LG NanoCell 50'' 4K ThinQ AI 50N...</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>S/. 2,399.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 32" HD ThinQ AI 32LM637B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>S/. 1,149.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Televisor HYUNDAI LED 42" FHD Smart TV HYL...</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>S/. 1,199.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Soporte Universal Móvil para TV 32"- 65" M...</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Televisor PHILIPS LED 50'' UHD 4K Smart Tv...</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>S/. 1,699.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Televisor HISENSE LED 58'' UHD 4K Smart Tv...</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>S/. 1,699.00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Televisor LG UHD 43'' 4K ThinQ AI 43UP7700...</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>S/. 1,649.00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG LED 43" Ultra HD / 4K Sm...</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>S/. 1,799.00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>S/. 2,449.00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 50" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>S/. 2,299.00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Televisor PHILIPS LED 32" HD Smart Tv 32PH...</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>S/. 849.00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_data.xlsx
+++ b/excel_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A25:D48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -437,6 +437,540 @@
     <col width="23.5703125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Televisor Samsung Crystal 4K 60" UN60AU700...</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>S/. 2,499.00</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>S/2,299.00
+-28%</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>S/. 3,199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG LED 43'' FHD Smart Tv UN...</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S/. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S/. 1,999.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S/1,899.00
+-36%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S/. 2,999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Televisor LG UHD 4K ThinQ AI 50" 50UP7750 ...</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S/. 2,799.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S/2,599.00
+-36%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S/. 4,099.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 50'' UHD 4K Smart Tv 50UP...</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 65'' UHD 4K Smart Tv 65UP...</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S/. 2,899.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Televisor LG UHD 4K ThinQ AI 43" 43UP7700 ...</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>S/. 1,799.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Televisor HISENSE LED 32'' HD Smart Tv 32A...</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S/. 749.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Televisor Samsung 50" AU7000 UHD 4K Smart ...</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S/. 1,899.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S/1,799.00
+-28%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S/. 2,499.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Televisor Samsung AU7000 58" UHD 4K Smart ...</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S/. 2,399.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S/2,199.00
+-24%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S/. 2,899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S/. 3,449.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 55'' UHD 4K Smart Tv 55UP...</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>S/2,049.00
+-24%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S/. 2,699.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Televisor LG NanoCell 50'' 4K ThinQ AI 50N...</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S/. 2,399.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Televisor LG LED 32" HD ThinQ AI 32LM637B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S/. 1,149.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Televisor HYUNDAI LED 42" FHD Smart TV HYL...</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S/. 1,199.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Soporte Universal Móvil para TV 32"- 65" M...</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Televisor PHILIPS LED 50'' UHD 4K Smart Tv...</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>S/. 1,699.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Televisor HISENSE LED 58'' UHD 4K Smart Tv...</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>S/. 1,699.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Televisor LG UHD 43'' 4K ThinQ AI 43UP7700...</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>S/. 1,649.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG LED 43" Ultra HD / 4K Sm...</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>S/. 1,799.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>S/. 2,449.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Televisor SAMSUNG CRYSTAL UHD 50" Ultra HD...</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>S/. 2,299.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Televisor PHILIPS LED 32" HD Smart Tv 32PH...</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>S/. 849.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>

--- a/excel_data.xlsx
+++ b/excel_data.xlsx
@@ -440,35 +440,34 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Televisor Samsung Crystal 4K 60" UN60AU700...</t>
+          <t>Televisor PANASONIC LED 32'' HD Smart TV T...</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>S/. 2,499.00</t>
+          <t>S/. 899.00</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>S/2,299.00
--28%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>S/. 3,199.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG LED 43'' FHD Smart Tv UN...</t>
+          <t>Televisor Xiaomi Mi LED TV 4A 32' Smart HD...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S/. 1,499.00</t>
+          <t>S/. 989.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,35 +484,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+          <t>Televisor HYUNDAI LED 58" UHD 4K Smart Tv ...</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S/. 1,999.00</t>
+          <t>S/. 1,899.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S/1,899.00
--36%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S/. 2,999.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Televisor LG UHD 4K ThinQ AI 50" 50UP7750 ...</t>
+          <t>Televisor LG HD ThinQ AI 32" 32LM637B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S/. 2,199.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,35 +528,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+          <t>Televisor LG NanoCell 4K Procesador Inteli...</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S/. 2,799.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S/2,599.00
--36%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S/. 4,099.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Televisor LG LED 50'' UHD 4K Smart Tv 50UP...</t>
+          <t>Televisor LG NanoCell 4K ThinQ AI 70" 70NA...</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S/. 2,199.00</t>
+          <t>S/. 4,299.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,12 +572,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Televisor LG LED 65'' UHD 4K Smart Tv 65UP...</t>
+          <t>TV Smart LG 4K 75" NanoCell, Thinq Ai, Ult...</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S/. 2,899.00</t>
+          <t>S/. 4,999.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -597,12 +594,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Televisor LG UHD 4K ThinQ AI 43" 43UP7700 ...</t>
+          <t>TELEVISOR LG 75" UHD 4K MOD: 75UP7750PSB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S/. 1,799.00</t>
+          <t>S/. 4,399.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -619,12 +616,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Televisor HISENSE LED 32'' HD Smart Tv 32A...</t>
+          <t>Xiaomi TV Smart 43" 4K UHD Modelo: L43M6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S/. 749.00</t>
+          <t>S/. 1,499.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -641,7 +638,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Televisor Samsung 50" AU7000 UHD 4K Smart ...</t>
+          <t>Televisor Hisense LED UHD 58" 58A6GSV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -651,48 +648,46 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S/1,799.00
--28%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S/. 2,499.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Televisor Samsung AU7000 58" UHD 4K Smart ...</t>
+          <t>Televisor Hisense LED HD 32" 32A4GSV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S/. 2,399.00</t>
+          <t>S/. 749.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>S/2,199.00
--24%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S/. 2,899.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+          <t>Televisor Hisense LED UHD 50" 50A6GSV</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S/. 3,449.00</t>
+          <t>S/. 1,499.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -709,35 +704,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Televisor LG LED 55'' UHD 4K Smart Tv 55UP...</t>
+          <t>COMBO Televisor LG Smart TV UHD 55" + Máqu...</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S/. 2,199.00</t>
+          <t>S/. 2,099.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S/2,049.00
--24%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S/. 2,699.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Televisor LG NanoCell 50'' 4K ThinQ AI 50N...</t>
+          <t>TV Smart Xiaomi Mi TV P1 32" LED, HD, sist...</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S/. 2,399.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -754,12 +748,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Televisor LG LED 32" HD ThinQ AI 32LM637B</t>
+          <t>TV Smart Xiaomi Mi TV Q1 4K 75" QLED, Ultr...</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S/. 1,149.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -776,12 +770,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Televisor HYUNDAI LED 42" FHD Smart TV HYL...</t>
+          <t>TV Smart Xiaomi Mi TV P1 4K 50" LED, Ultra...</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S/. 1,199.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -798,7 +792,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Soporte Universal Móvil para TV 32"- 65" M...</t>
+          <t>TV Smart Xiaomi Mi TV P1 4K 55" LED, Ultra...</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -820,12 +814,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Televisor PHILIPS LED 50'' UHD 4K Smart Tv...</t>
+          <t>Soporte de Pared Fijo Inclinable para TV 3...</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S/. 1,699.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -842,12 +836,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Televisor HISENSE LED 58'' UHD 4K Smart Tv...</t>
+          <t>Televisor LED SMART HD 32" 32S5195</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S/. 1,699.00</t>
+          <t>S/. 949.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -864,12 +858,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Televisor LG UHD 43'' 4K ThinQ AI 43UP7700...</t>
+          <t>Televisor AOC LED SMART FHD 43" 43S5195</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S/. 1,649.00</t>
+          <t>S/. 1,399.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -886,12 +880,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG LED 43" Ultra HD / 4K Sm...</t>
+          <t>TELEVISOR SAMSUNG 65" MOD: QN65Q70AAGXPE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S/. 1,799.00</t>
+          <t>S/. 5,179.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -908,12 +902,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+          <t>TELEVISOR SAMSUNG 65" MOD: UN65AU8000GXPE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S/. 2,449.00</t>
+          <t>S/. 3,579.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -930,12 +924,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG CRYSTAL UHD 50" Ultra HD...</t>
+          <t>TELEVISOR SAMSUNG 55" MOD: UN55AU8000GXPE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S/. 2,299.00</t>
+          <t>S/. 2,539.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -952,12 +946,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Televisor PHILIPS LED 32" HD Smart Tv 32PH...</t>
+          <t>TELEVISOR SAMSUNG 58" MOD: UN58AU7000GXPE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S/. 849.00</t>
+          <t>S/. 2,539.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">

--- a/excel_data.xlsx
+++ b/excel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\shopstar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482DCC7F-2164-4B71-A4FB-D6AA4CC99994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D71B59-8089-4ACC-A488-8F768CE4EDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,620 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="201">
+  <si>
+    <t>Televisor Samsung Crystal 4K 60" UN60AU700...</t>
+  </si>
+  <si>
+    <t>S/. 2,499.00</t>
+  </si>
+  <si>
+    <t>S/2,299.00
+-28%</t>
+  </si>
+  <si>
+    <t>S/. 3,199.00</t>
+  </si>
+  <si>
+    <t>Televisor SAMSUNG LED 43'' FHD Smart Tv UN...</t>
+  </si>
+  <si>
+    <t>S/. 1,499.00</t>
+  </si>
+  <si>
+    <t>S/0</t>
+  </si>
+  <si>
+    <t>Televisor SAMSUNG CRYSTAL UHD 55" Ultra HD...</t>
+  </si>
+  <si>
+    <t>S/. 1,999.00</t>
+  </si>
+  <si>
+    <t>S/1,899.00
+-36%</t>
+  </si>
+  <si>
+    <t>S/. 2,999.00</t>
+  </si>
+  <si>
+    <t>Televisor LG UHD 4K ThinQ AI 50" 50UP7750 ...</t>
+  </si>
+  <si>
+    <t>S/. 2,199.00</t>
+  </si>
+  <si>
+    <t>Televisor SAMSUNG CRYSTAL UHD 65" Ultra HD...</t>
+  </si>
+  <si>
+    <t>S/. 2,699.00</t>
+  </si>
+  <si>
+    <t>S/2,499.00
+-39%</t>
+  </si>
+  <si>
+    <t>S/. 4,099.00</t>
+  </si>
+  <si>
+    <t>Televisor LG LED 50'' UHD 4K Smart Tv 50UP...</t>
+  </si>
+  <si>
+    <t>Televisor LG LED 65'' UHD 4K Smart Tv 65UP...</t>
+  </si>
+  <si>
+    <t>S/. 2,899.00</t>
+  </si>
+  <si>
+    <t>Televisor LG UHD 4K ThinQ AI 43" 43UP7700 ...</t>
+  </si>
+  <si>
+    <t>S/. 1,799.00</t>
+  </si>
+  <si>
+    <t>Televisor LG UHD 43'' 4K ThinQ AI 43UP7700...</t>
+  </si>
+  <si>
+    <t>S/. 1,649.00</t>
+  </si>
+  <si>
+    <t>Televisor HISENSE LED 32'' HD Smart Tv 32A...</t>
+  </si>
+  <si>
+    <t>S/. 749.00</t>
+  </si>
+  <si>
+    <t>Televisor Samsung 50" AU7000 UHD 4K Smart ...</t>
+  </si>
+  <si>
+    <t>S/. 1,899.00</t>
+  </si>
+  <si>
+    <t>S/1,799.00
+-28%</t>
+  </si>
+  <si>
+    <t>Televisor Samsung AU7000 58" UHD 4K Smart ...</t>
+  </si>
+  <si>
+    <t>S/. 2,399.00</t>
+  </si>
+  <si>
+    <t>S/2,199.00
+-24%</t>
+  </si>
+  <si>
+    <t>S/. 3,449.00</t>
+  </si>
+  <si>
+    <t>Televisor LG LED 55'' UHD 4K Smart Tv 55UP...</t>
+  </si>
+  <si>
+    <t>S/2,049.00
+-24%</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 50'' 4K ThinQ AI 50N...</t>
+  </si>
+  <si>
+    <t>Televisor LG LED 32" HD ThinQ AI 32LM637B</t>
+  </si>
+  <si>
+    <t>S/. 1,149.00</t>
+  </si>
+  <si>
+    <t>Televisor HYUNDAI LED 42" FHD Smart TV HYL...</t>
+  </si>
+  <si>
+    <t>S/. 1,199.00</t>
+  </si>
+  <si>
+    <t>Soporte Universal Móvil para TV 32"- 65" M...</t>
+  </si>
+  <si>
+    <t>Televisor PHILIPS LED 50'' UHD 4K Smart Tv...</t>
+  </si>
+  <si>
+    <t>S/. 1,699.00</t>
+  </si>
+  <si>
+    <t>Televisor HISENSE LED 58'' UHD 4K Smart Tv...</t>
+  </si>
+  <si>
+    <t>Televisor SAMSUNG LED 43" Ultra HD / 4K Sm...</t>
+  </si>
+  <si>
+    <t>S/. 2,449.00</t>
+  </si>
+  <si>
+    <t>Televisor SAMSUNG CRYSTAL UHD 50" Ultra HD...</t>
+  </si>
+  <si>
+    <t>S/. 2,299.00</t>
+  </si>
+  <si>
+    <t>Televisor PHILIPS LED 32" HD Smart Tv 32PH...</t>
+  </si>
+  <si>
+    <t>S/. 849.00</t>
+  </si>
+  <si>
+    <t>Televisor PANASONIC LED 32'' HD Smart TV T...</t>
+  </si>
+  <si>
+    <t>S/. 899.00</t>
+  </si>
+  <si>
+    <t>Televisor Xiaomi Mi LED TV 4A 32' Smart HD...</t>
+  </si>
+  <si>
+    <t>S/. 989.00</t>
+  </si>
+  <si>
+    <t>Televisor HYUNDAI LED 58" UHD 4K Smart Tv ...</t>
+  </si>
+  <si>
+    <t>Televisor LG HD ThinQ AI 32" 32LM637B</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 4K Procesador Inteli...</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 4K ThinQ AI 70" 70NA...</t>
+  </si>
+  <si>
+    <t>S/. 4,299.00</t>
+  </si>
+  <si>
+    <t>TV Smart LG 4K 75" NanoCell, Thinq Ai, Ult...</t>
+  </si>
+  <si>
+    <t>S/. 4,999.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR LG 75" UHD 4K MOD: 75UP7750PSB</t>
+  </si>
+  <si>
+    <t>S/. 4,399.00</t>
+  </si>
+  <si>
+    <t>Xiaomi TV Smart 43" 4K UHD Modelo: L43M6</t>
+  </si>
+  <si>
+    <t>Televisor Hisense LED UHD 58" 58A6GSV</t>
+  </si>
+  <si>
+    <t>Televisor Hisense LED HD 32" 32A4GSV</t>
+  </si>
+  <si>
+    <t>Televisor Hisense LED UHD 50" 50A6GSV</t>
+  </si>
+  <si>
+    <t>COMBO Televisor LG Smart TV UHD 55" + Máqu...</t>
+  </si>
+  <si>
+    <t>S/. 2,099.00</t>
+  </si>
+  <si>
+    <t>TV Smart Xiaomi Mi TV P1 32" LED, HD, sist...</t>
+  </si>
+  <si>
+    <t>TV Smart Xiaomi Mi TV Q1 4K 75" QLED, Ultr...</t>
+  </si>
+  <si>
+    <t>TV Smart Xiaomi Mi TV P1 4K 50" LED, Ultra...</t>
+  </si>
+  <si>
+    <t>TV Smart Xiaomi Mi TV P1 4K 55" LED, Ultra...</t>
+  </si>
+  <si>
+    <t>Soporte de Pared Fijo Inclinable para TV 3...</t>
+  </si>
+  <si>
+    <t>Televisor LED SMART HD 32" 32S5195</t>
+  </si>
+  <si>
+    <t>S/. 949.00</t>
+  </si>
+  <si>
+    <t>Televisor AOC LED SMART FHD 43" 43S5195</t>
+  </si>
+  <si>
+    <t>S/. 1,399.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 65" MOD: QN65Q70AAGXPE</t>
+  </si>
+  <si>
+    <t>S/. 5,179.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 65" MOD: UN65AU8000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 3,579.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 55" MOD: UN55AU8000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 2,539.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 58" MOD: UN58AU7000GXPE</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 55" MOD: UN55AU7000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 2,279.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 50" MOD: UN50AU8000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 2,379.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 50" MOD: UN50AU7000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 2,179.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 70" MOD: UN70AU7000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 3,729.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 65" MOD: UN65AU7000GXPE</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 50" MOD: QN50Q60AAGXPE</t>
+  </si>
+  <si>
+    <t>S/. 2,589.00</t>
+  </si>
+  <si>
+    <t>TELEVISOR SAMSUNG 43" MOD: UN43AU7000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 1,759.00</t>
+  </si>
+  <si>
+    <t>Amazon Fire TV Stick 4K Ultra HD con Alexa</t>
+  </si>
+  <si>
+    <t>S/. 299.00</t>
+  </si>
+  <si>
+    <t>Amazon Fire TV Stick 3ra Gen con Alexa Ful...</t>
+  </si>
+  <si>
+    <t>S/. 249.00</t>
+  </si>
+  <si>
+    <t>Televisor Samsung Crystal UHD 60" UN60AU70...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor Crystal UHD 60" + Máquina ...</t>
+  </si>
+  <si>
+    <t>LG TV Smart 4K AI 55" Smart TV Procesad...</t>
+  </si>
+  <si>
+    <t>LG TV 55UN711C 55?,4K Ultra HD Smart TV AI...</t>
+  </si>
+  <si>
+    <t>S/. 2,169.00</t>
+  </si>
+  <si>
+    <t>LG TV Smart 4K AI 50" Smart TV Procesad...</t>
+  </si>
+  <si>
+    <t>S/. 2,119.00</t>
+  </si>
+  <si>
+    <t>S/1,999.00
+-29%</t>
+  </si>
+  <si>
+    <t>S/. 2,799.00</t>
+  </si>
+  <si>
+    <t>Televisor Samsung Smart TV 70" Q60A QLED 4...</t>
+  </si>
+  <si>
+    <t>S/. 5,399.00</t>
+  </si>
+  <si>
+    <t>Televisor Samsung Smart TV 55" QLED 4K Q80...</t>
+  </si>
+  <si>
+    <t>S/. 3,899.00</t>
+  </si>
+  <si>
+    <t>LG UHD AI ThinQ 55'' UP77 4K Smart Tv</t>
+  </si>
+  <si>
+    <t>S/. 2,398.00</t>
+  </si>
+  <si>
+    <t>Televisor LG MINI LED 4K ThinQ AI 75" 75QN...</t>
+  </si>
+  <si>
+    <t>S/. 17,999.00</t>
+  </si>
+  <si>
+    <t>S/. 11,999.00</t>
+  </si>
+  <si>
+    <t>Televisor 43" LG UHD 4K</t>
+  </si>
+  <si>
+    <t>S/. 1,799.40</t>
+  </si>
+  <si>
+    <t>LG UHD AI ThinQ 50'' UP77 4K Smart T</t>
+  </si>
+  <si>
+    <t>S/. 2,309.23</t>
+  </si>
+  <si>
+    <t>Televisor AOC LED 43" FHD Smart TV 43S5305</t>
+  </si>
+  <si>
+    <t>S/. 1,299.00</t>
+  </si>
+  <si>
+    <t>Televisor PANASONIC LCD 43'' UHD 4K Smart ...</t>
+  </si>
+  <si>
+    <t>Televisor SONY LCD 65'' Ultra HD / 4K Smar...</t>
+  </si>
+  <si>
+    <t>Televisor LG OLED 65'' 4K ThinQ AI OLED65G...</t>
+  </si>
+  <si>
+    <t>S/. 9,999.00</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 65'' UHD 4K ThinQ AI...</t>
+  </si>
+  <si>
+    <t>Televisor PANASONIC LCD 40'' HD Smart Tv T...</t>
+  </si>
+  <si>
+    <t>S/. 1,349.00</t>
+  </si>
+  <si>
+    <t>Televisor HISENSE LED 65'' UHD 4K Smart TV...</t>
+  </si>
+  <si>
+    <t>Televisor HISENSE LED 50'' UHD 4K Smart TV...</t>
+  </si>
+  <si>
+    <t>Televisor HISENSE LED 43'' FHD Smart Tv 43...</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 75'' UHD 4K ThinQ AI...</t>
+  </si>
+  <si>
+    <t>S/. 4,499.00</t>
+  </si>
+  <si>
+    <t>Televisor LG OLED 48'' 4K ThinQ AI OLED48A...</t>
+  </si>
+  <si>
+    <t>S/. 3,099.00</t>
+  </si>
+  <si>
+    <t>LG NanoCell 55'' NANO75 4K Smart TV</t>
+  </si>
+  <si>
+    <t>S/. 2,629.00</t>
+  </si>
+  <si>
+    <t>LG OLED 65'' A1 4K Smart TV</t>
+  </si>
+  <si>
+    <t>S/. 6,879.00</t>
+  </si>
+  <si>
+    <t>LG OLED 65'' C1 4K Smart TV</t>
+  </si>
+  <si>
+    <t>S/. 7,589.00</t>
+  </si>
+  <si>
+    <t>LG OLED 55'' A1 4K Smart TV con ThinQ AI, ...</t>
+  </si>
+  <si>
+    <t>LG OLED 48'' A1 4K Smart TV con ThinQ A , ...</t>
+  </si>
+  <si>
+    <t>Televisor Samsung Crystal UHD 50" UN50AU80...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor UHD 65" + Máquina de pop c...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor UHD 55" + Máquina de pop c...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor Qled 60" + Máquina de pop ...</t>
+  </si>
+  <si>
+    <t>S/. 3,249.00</t>
+  </si>
+  <si>
+    <t>COMBO Televisor UHD 58" + Máquina de pop c...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor Crystal UHD 55" + Máquina ...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor UHD 50" + Máquina de pop c...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor Crystal UHD 50" + Máquina ...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor UHD 43" + Máquina de pop c...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor Qled 65" + Máquina de pop ...</t>
+  </si>
+  <si>
+    <t>COMBO Televisor 50" + Máquina de pop corn</t>
+  </si>
+  <si>
+    <t>S/. 2,599.00</t>
+  </si>
+  <si>
+    <t>Televisor Sony 65" OLED 4K UHD Google TV S...</t>
+  </si>
+  <si>
+    <t>Televisor Samsung Smart TV QLED 4K 65" Q80...</t>
+  </si>
+  <si>
+    <t>S/. 6,299.00</t>
+  </si>
+  <si>
+    <t>Televisor LG Smart TV OLED 48" ThinQ AI OL...</t>
+  </si>
+  <si>
+    <t>S/. 3,699.00</t>
+  </si>
+  <si>
+    <t>Televisor LG Smart TV NanoCell 65" ThinQ A...</t>
+  </si>
+  <si>
+    <t>S/. 3,499.00</t>
+  </si>
+  <si>
+    <t>Televisor LG OLED 4K ThinQ AI 77" OLED77C1...</t>
+  </si>
+  <si>
+    <t>S/. 14,999.00</t>
+  </si>
+  <si>
+    <t>Televisor Sony 75" 4K UHD GOOGLE TV SMART ...</t>
+  </si>
+  <si>
+    <t>S/. 6,999.00</t>
+  </si>
+  <si>
+    <t>Televisor Sony 65" 4K UHD GOOGLE TV SMART ...</t>
+  </si>
+  <si>
+    <t>Televisor Sony 55" 4K UHD GOOGLE TV SMART ...</t>
+  </si>
+  <si>
+    <t>S/. 3,999.00</t>
+  </si>
+  <si>
+    <t>Televisor Sony OLED 4K Ultra HD Smart TV 5...</t>
+  </si>
+  <si>
+    <t>Televisor Samsung Neo QLED 4K Smart TV QN8...</t>
+  </si>
+  <si>
+    <t>S/. 4,799.00</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 4K ThinQ AI 75" 75NA...</t>
+  </si>
+  <si>
+    <t>S/. 8,499.00</t>
+  </si>
+  <si>
+    <t>Televisor LG UHD 4K ThinQ AI 55" 55UP7750 ...</t>
+  </si>
+  <si>
+    <t>S/2,149.00
+-38%</t>
+  </si>
+  <si>
+    <t>Televisor AOC LED 50" UHD/4K Smart TV 50U6...</t>
+  </si>
+  <si>
+    <t>Televisor QLED 50" QN50Q60AAGXPE</t>
+  </si>
+  <si>
+    <t>Televisor UHD 70" UN70AU7000GXPE</t>
+  </si>
+  <si>
+    <t>S/. 3,599.00</t>
+  </si>
+  <si>
+    <t>TV SONY 55" Full Array LED 4K UHD Google T...</t>
+  </si>
+  <si>
+    <t>S/. 4,599.00</t>
+  </si>
+  <si>
+    <t>TV SONY 65" Full Array LED 4K UHD Google T...</t>
+  </si>
+  <si>
+    <t>S/. 6,199.00</t>
+  </si>
+  <si>
+    <t>Televisor Samsung 65"AU7000 UHD 4K Smart T...</t>
+  </si>
+  <si>
+    <t>S/2,599.00
+-33%</t>
+  </si>
+  <si>
+    <t>Televisor UHD 65" UN65AU7000GXPE</t>
+  </si>
+  <si>
+    <t>Televisor UHD 55" UN55AU7000GXPE</t>
+  </si>
+  <si>
+    <t>Televisor LG NanoCell 4K ThinQ AI 55" 55NA...</t>
+  </si>
+  <si>
+    <t>Televisor LG OLED 4K ThinQ AI 65" OLED65C1...</t>
+  </si>
+  <si>
+    <t>S/. 7,999.00</t>
+  </si>
+  <si>
+    <t>Televisor LG OLED 4K ThinQ AI 65" OLED65G1...</t>
+  </si>
+  <si>
+    <t>S/. 10,499.00</t>
+  </si>
+  <si>
+    <t>Televisor Sony 4K HDR Processor X1 75" KD-...</t>
+  </si>
+  <si>
+    <t>S/. 6,499.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,12 +655,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,9 +681,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:B13"/>
+  <dimension ref="A1:D1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,11 +1012,2413 @@
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>154</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" t="s">
+        <v>165</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>166</v>
+      </c>
+      <c r="B148" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>169</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" t="s">
+        <v>171</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" t="s">
+        <v>179</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" t="s">
+        <v>181</v>
+      </c>
+      <c r="D156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" t="s">
+        <v>185</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>186</v>
+      </c>
+      <c r="B160" t="s">
+        <v>187</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>190</v>
+      </c>
+      <c r="B162" t="s">
+        <v>110</v>
+      </c>
+      <c r="C162" t="s">
+        <v>191</v>
+      </c>
+      <c r="D162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>192</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>193</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>195</v>
+      </c>
+      <c r="B166" t="s">
+        <v>196</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>197</v>
+      </c>
+      <c r="B167" t="s">
+        <v>198</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>50</v>
+      </c>
+      <c r="B577" t="s">
+        <v>51</v>
+      </c>
+      <c r="C577" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>52</v>
+      </c>
+      <c r="B578" t="s">
+        <v>53</v>
+      </c>
+      <c r="C578" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_data.xlsx
+++ b/excel_data.xlsx
@@ -446,7 +446,7 @@
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="65.85546875" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="2"/>
@@ -990,12 +990,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Televisor PANASONIC LED 32'' HD Smart TV T...</t>
+          <t>TELEVISOR SAMSUNG 55" MOD: UN55AU7000GXPE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S/. 899.00</t>
+          <t>S/. 2,279.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1012,12 +1012,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Televisor Xiaomi Mi LED TV 4A 32' Smart HD...</t>
+          <t>TELEVISOR SAMSUNG 50" MOD: UN50AU8000GXPE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S/. 989.00</t>
+          <t>S/. 2,379.00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1034,12 +1034,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Televisor HYUNDAI LED 58" UHD 4K Smart Tv ...</t>
+          <t>TELEVISOR SAMSUNG 50" MOD: UN50AU7000GXPE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S/. 1,899.00</t>
+          <t>S/. 2,179.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1056,12 +1056,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Televisor LG HD ThinQ AI 32" 32LM637B</t>
+          <t>TELEVISOR SAMSUNG 70" MOD: UN70AU7000GXPE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 3,729.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1078,12 +1078,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Televisor LG NanoCell 4K Procesador Inteli...</t>
+          <t>TELEVISOR SAMSUNG 65" MOD: UN65AU7000GXPE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 2,899.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1100,12 +1100,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Televisor LG NanoCell 4K ThinQ AI 70" 70NA...</t>
+          <t>TELEVISOR SAMSUNG 50" MOD: QN50Q60AAGXPE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S/. 4,299.00</t>
+          <t>S/. 2,589.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1122,12 +1122,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TV Smart LG 4K 75" NanoCell, Thinq Ai, Ult...</t>
+          <t>TELEVISOR SAMSUNG 43" MOD: UN43AU7000GXPE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S/. 4,999.00</t>
+          <t>S/. 1,759.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1144,12 +1144,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TELEVISOR LG 75" UHD 4K MOD: 75UP7750PSB</t>
+          <t>Amazon Fire TV Stick 4K Ultra HD con Alexa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S/. 4,399.00</t>
+          <t>S/. 299.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1166,12 +1166,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Xiaomi TV Smart 43" 4K UHD Modelo: L43M6</t>
+          <t>Amazon Fire TV Stick 3ra Gen con Alexa Ful...</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S/. 1,499.00</t>
+          <t>S/. 249.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1188,12 +1188,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Televisor Hisense LED UHD 58" 58A6GSV</t>
+          <t>Televisor Samsung Crystal UHD 60" UN60AU70...</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S/. 1,899.00</t>
+          <t>S/. 2,499.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1210,12 +1210,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Televisor Hisense LED HD 32" 32A4GSV</t>
+          <t>COMBO Televisor Crystal UHD 60" + Máquina ...</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S/. 749.00</t>
+          <t>S/. 2,499.00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1232,12 +1232,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Televisor Hisense LED UHD 50" 50A6GSV</t>
+          <t>LG TV Smart 4K AI 55" Smart TV Procesad...</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S/. 1,499.00</t>
+          <t>S/. 2,279.00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1254,12 +1254,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COMBO Televisor LG Smart TV UHD 55" + Máqu...</t>
+          <t>LG TV 55UN711C 55?,4K Ultra HD Smart TV AI...</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S/. 2,099.00</t>
+          <t>S/. 2,169.00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1276,34 +1276,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TV Smart Xiaomi Mi TV P1 32" LED, HD, sist...</t>
+          <t>LG TV Smart 4K AI 50" Smart TV Procesad...</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 2,119.00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/1,999.00
+-29%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 2,799.00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TV Smart Xiaomi Mi TV Q1 4K 75" QLED, Ultr...</t>
+          <t>Televisor Samsung Smart TV 70" Q60A QLED 4...</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 5,399.00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1320,12 +1321,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TV Smart Xiaomi Mi TV P1 4K 50" LED, Ultra...</t>
+          <t>Televisor Samsung Smart TV 55" QLED 4K Q80...</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 3,899.00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1342,12 +1343,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TV Smart Xiaomi Mi TV P1 4K 55" LED, Ultra...</t>
+          <t>LG UHD AI ThinQ 55'' UP77 4K Smart Tv</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 2,398.00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1364,12 +1365,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Soporte de Pared Fijo Inclinable para TV 3...</t>
+          <t>Televisor LG MINI LED 4K ThinQ AI 75" 75QN...</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S/0</t>
+          <t>S/. 17,999.00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1386,12 +1387,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Televisor LED SMART HD 32" 32S5195</t>
+          <t>Televisor LG MINI LED 4K ThinQ AI 75" 75QN...</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S/. 949.00</t>
+          <t>S/. 11,999.00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1408,12 +1409,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Televisor AOC LED SMART FHD 43" 43S5195</t>
+          <t>Televisor 43" LG UHD 4K</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S/. 1,399.00</t>
+          <t>S/. 1,799.40</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1430,12 +1431,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 65" MOD: QN65Q70AAGXPE</t>
+          <t>LG UHD AI ThinQ 50'' UP77 4K Smart T</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S/. 5,179.00</t>
+          <t>S/. 2,309.23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1452,12 +1453,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 65" MOD: UN65AU8000GXPE</t>
+          <t>Televisor AOC LED 43" FHD Smart TV 43S5305</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S/. 3,579.00</t>
+          <t>S/. 1,299.00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1474,12 +1475,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 55" MOD: UN55AU8000GXPE</t>
+          <t>Televisor PANASONIC LCD 43'' UHD 4K Smart ...</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S/. 2,539.00</t>
+          <t>S/. 1,799.00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1496,12 +1497,12 @@
     <row r="48" customFormat="1" s="2">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 58" MOD: UN58AU7000GXPE</t>
+          <t>Televisor SONY LCD 65'' Ultra HD / 4K Smar...</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>S/. 2,539.00</t>
+          <t>S/. 4,399.00</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1518,12 +1519,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 55" MOD: UN55AU7000GXPE</t>
+          <t>Televisor LG OLED 65'' 4K ThinQ AI OLED65G...</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S/. 2,279.00</t>
+          <t>S/. 9,999.00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1540,12 +1541,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 50" MOD: UN50AU8000GXPE</t>
+          <t>Televisor LG NanoCell 65'' UHD 4K ThinQ AI...</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S/. 2,379.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1562,12 +1563,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 50" MOD: UN50AU7000GXPE</t>
+          <t>Televisor PANASONIC LCD 40'' HD Smart Tv T...</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S/. 2,179.00</t>
+          <t>S/. 1,349.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1584,12 +1585,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 70" MOD: UN70AU7000GXPE</t>
+          <t>Televisor HISENSE LED 65'' UHD 4K Smart TV...</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S/. 3,729.00</t>
+          <t>S/. 2,199.00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1606,12 +1607,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 65" MOD: UN65AU7000GXPE</t>
+          <t>Televisor HISENSE LED 50'' UHD 4K Smart TV...</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S/. 2,899.00</t>
+          <t>S/. 1,499.00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1628,12 +1629,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 50" MOD: QN50Q60AAGXPE</t>
+          <t>Televisor HISENSE LED 43'' FHD Smart Tv 43...</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S/. 2,589.00</t>
+          <t>S/. 1,199.00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1650,12 +1651,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TELEVISOR SAMSUNG 43" MOD: UN43AU7000GXPE</t>
+          <t>Televisor LG NanoCell 75'' UHD 4K ThinQ AI...</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S/. 1,759.00</t>
+          <t>S/. 4,499.00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1672,12 +1673,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Amazon Fire TV Stick 4K Ultra HD con Alexa</t>
+          <t>Televisor LG OLED 48'' 4K ThinQ AI OLED48A...</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S/. 299.00</t>
+          <t>S/. 3,099.00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1694,12 +1695,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Amazon Fire TV Stick 3ra Gen con Alexa Ful...</t>
+          <t>LG NanoCell 55'' NANO75 4K Smart TV</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S/. 249.00</t>
+          <t>S/. 2,629.00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1716,12 +1717,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Televisor Samsung Crystal UHD 60" UN60AU70...</t>
+          <t>LG OLED 65'' A1 4K Smart TV</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S/. 2,499.00</t>
+          <t>S/. 6,879.00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1738,12 +1739,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>COMBO Televisor Crystal UHD 60" + Máquina ...</t>
+          <t>LG OLED 65'' C1 4K Smart TV</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S/. 2,499.00</t>
+          <t>S/. 7,589.00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1760,12 +1761,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LG TV Smart 4K AI 55" Smart TV Procesad...</t>
+          <t>LG OLED 55'' A1 4K Smart TV con ThinQ AI, ...</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S/. 2,279.00</t>
+          <t>S/. 4,299.00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1782,12 +1783,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LG TV 55UN711C 55?,4K Ultra HD Smart TV AI...</t>
+          <t>LG OLED 48'' A1 4K Smart TV con ThinQ A , ...</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S/. 2,169.00</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1804,35 +1805,34 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LG TV Smart 4K AI 50" Smart TV Procesad...</t>
+          <t>Televisor Samsung Crystal UHD 50" UN50AU80...</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S/. 2,119.00</t>
+          <t>S/. 2,299.00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>S/1,999.00
--29%</t>
+          <t>S/0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>S/. 2,799.00</t>
+          <t>S/0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Televisor Samsung Smart TV 70" Q60A QLED 4...</t>
+          <t>COMBO Televisor UHD 65" + Máquina de pop c...</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S/. 5,399.00</t>
+          <t>S/. 2,999.00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1849,12 +1849,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Televisor Samsung Smart TV 55" QLED 4K Q80...</t>
+          <t>COMBO Televisor UHD 55" + Máquina de pop c...</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S/. 3,899.00</t>
+          <t>S/. 2,199.00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1871,12 +1871,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LG UHD AI ThinQ 55'' UP77 4K Smart Tv</t>
+          <t>COMBO Televisor Qled 60" + Máquina de pop ...</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S/. 2,398.00</t>
+          <t>S/. 3,249.00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1893,12 +1893,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Televisor LG MINI LED 4K ThinQ AI 75" 75QN...</t>
+          <t>COMBO Televisor UHD 58" + Máquina de pop c...</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S/. 17,999.00</t>
+          <t>S/. 2,449.00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1915,12 +1915,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Televisor LG MINI LED 4K ThinQ AI 75" 75QN...</t>
+          <t>COMBO Televisor Crystal UHD 55" + Máquina ...</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S/. 11,999.00</t>
+          <t>S/. 2,449.00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Televisor 43" LG UHD 4K</t>
+          <t>COMBO Televisor UHD 50" + Máquina de pop c...</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S/. 1,799.40</t>
+          <t>S/. 2,099.00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1959,12 +1959,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LG UHD AI ThinQ 50'' UP77 4K Smart T</t>
+          <t>COMBO Televisor Crystal UHD 50" + Máquina ...</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S/. 2,309.23</t>
+          <t>S/. 2,299.00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1981,12 +1981,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Televisor AOC LED 43" FHD Smart TV 43S5305</t>
+          <t>COMBO Televisor UHD 43" + Máquina de pop c...</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S/. 1,299.00</t>
+          <t>S/. 1,799.00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Televisor PANASONIC LCD 43'' UHD 4K Smart ...</t>
+          <t>COMBO Televisor Qled 65" + Máquina de pop ...</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S/. 1,799.00</t>
+          <t>S/. 4,999.00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2025,12 +2025,12 @@
     <row r="72" customFormat="1" s="2">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Televisor SONY LCD 65'' Ultra HD / 4K Smar...</t>
+          <t>COMBO Televisor 50" + Máquina de pop corn</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>S/. 4,399.00</t>
+          <t>S/. 2,599.00</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
